--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_220.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_220.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,620 +488,670 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.24, 13.46)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.62, 19.56)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2848837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.24, 30.96)]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.3, 17.6)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:57.860000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06648351648351648</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'G:7', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09922445255474452</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>[['B:min7/4', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.265237, 68.830317)]</t>
+          <t>[['A:min7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(56.44, 67.26)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:40.450000', '0:00:44.180000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:32.320000', '0:00:33.880000'), ('0:00:32.040000', '0:00:33.420000'), ('0:00:07.700000', '0:00:12.060000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.4, 55.36)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.22, 8.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:03.640000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:53.240000', '0:01:04.220000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(45.58, 49.6)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.54, 6.68)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.12, 19.96)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.56, 45.26)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.26, 45.88)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#', 'A#/F', 'F:7']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24), (8.02, 15.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78), (269.7, 272.54)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.46, 12.58)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.219991, 14.772644)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.18, 21.14)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(23.8, 54.3)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1790540540540541</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'G/2', 'D/5']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.169705, 38.767256)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(62.291, 66.637)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G'], ['G', 'C', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['D', 'G', 'G:7']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011), (28.049727, 32.566009)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.524557, 70.536984), (57.348049, 63.524557)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.17907, 23.725555)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(75.72, 86.06), (23.6, 31.26), (0.54, 7.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.28, 23.84), (12.78, 18.28), (19.6, 25.16)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
